--- a/medicine/Pharmacie/Pierre_Flambeau_Ngayap/Pierre_Flambeau_Ngayap.xlsx
+++ b/medicine/Pharmacie/Pierre_Flambeau_Ngayap/Pierre_Flambeau_Ngayap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Flambeau Ngayap, né le 13 février 1953 à Bangoua[1] est un intellectuel, écrivain, pharmacien et ancien président de l'ordre des pharmaciens, est un homme politique camerounais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Flambeau Ngayap, né le 13 février 1953 à Bangoua est un intellectuel, écrivain, pharmacien et ancien président de l'ordre des pharmaciens, est un homme politique camerounais.
 </t>
         </is>
       </c>
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et débuts
-Carrière
-Il est sénateur pour l'UNDP[2],[3]. 
-Œuvre
-Il est auteur de plusieurs ouvrages.
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est sénateur pour l'UNDP,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pierre_Flambeau_Ngayap</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Flambeau_Ngayap</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est auteur de plusieurs ouvrages.
 </t>
         </is>
       </c>
